--- a/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.4.53</t>
+    <t>urn:oid:1.2.250.1.213.3.4.53</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-04-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -186,7 +192,10 @@
     <t>Téléexpertise</t>
   </si>
   <si>
-    <t/>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Cellule opérationnelle de Bed Management</t>
   </si>
   <si>
     <t>System URI</t>
@@ -326,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -432,20 +441,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -467,146 +484,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2023-10-30T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,130 +72,121 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Un service ou un guichet assurant le contact au sein de l'organisation</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Prise de rendez-vous</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Médical</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Soignant</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Secrétariat</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Alerte-Tension-SSE</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Téléconsultation</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Alerte heures ouvrées</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Alerte heures non ouvrées</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Alerte H24</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Garde ou astreinte</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Téléexpertise</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Un service ou un guichet assurant le contact au sein de l'organisation</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Accueil</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Prise de rendez-vous</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Médical</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Soignant</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Secrétariat</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Alerte-Tension-SSE</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Téléconsultation</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Alerte heures ouvrées</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Alerte heures non ouvrées</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Alerte H24</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Garde ou astreinte</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Téléexpertise</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Cellule opérationnelle de Bed Management</t>
   </si>
   <si>
     <t>System URI</t>
@@ -335,7 +326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -441,28 +432,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -484,154 +467,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,127 +75,124 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Un service ou un guichet assurant le contact au sein de l'organisation</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Accueil</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Prise de rendez-vous</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Médical</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Soignant</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Secrétariat</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Alerte-Tension-SSE</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Téléconsultation</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Alerte heures ouvrées</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Alerte heures non ouvrées</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Alerte H24</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Garde ou astreinte</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Téléexpertise</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Cellule opérationnelle de Bed Management</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Un service ou un guichet assurant le contact au sein de l'organisation</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Accueil</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Prise de rendez-vous</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Médical</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Soignant</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Secrétariat</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Alerte-Tension-SSE</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Téléconsultation</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Alerte heures ouvrées</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Alerte heures non ouvrées</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Alerte H24</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Garde ou astreinte</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Téléexpertise</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Cellule opérationnelle de Bed Management</t>
   </si>
   <si>
     <t>System URI</t>
@@ -335,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -441,28 +438,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -484,154 +473,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J221-NatureContact-ROR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Cellule opérationnelle de Bed Management</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Télésoin</t>
   </si>
   <si>
     <t/>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,15 +618,23 @@
         <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
